--- a/Druckerliste_CARI_export.xlsx
+++ b/Druckerliste_CARI_export.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Druckerliste" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forms" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Druckerliste" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Forms" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -49594,7 +49594,7 @@
       </c>
       <c r="D889" t="inlineStr">
         <is>
-          <t>PSTVA5729</t>
+          <t>PSTVA5671</t>
         </is>
       </c>
       <c r="E889" t="inlineStr">
@@ -49604,7 +49604,7 @@
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>DP_PCBI</t>
+          <t>DE001</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
@@ -49625,12 +49625,12 @@
       </c>
       <c r="K889" t="inlineStr">
         <is>
-          <t>Canon iR-ADV C5540</t>
+          <t>Brother HL-L6250DN</t>
         </is>
       </c>
       <c r="L889" t="inlineStr">
         <is>
-          <t>EG S</t>
+          <t>EG S Zulassung</t>
         </is>
       </c>
     </row>
@@ -49650,17 +49650,17 @@
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>PSTVA5729</t>
+          <t>PSTVA5671</t>
         </is>
       </c>
       <c r="E890" t="inlineStr">
         <is>
-          <t>M0</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>DP_PCBIA</t>
+          <t>DP_CGB</t>
         </is>
       </c>
       <c r="G890" t="inlineStr">
@@ -49681,12 +49681,12 @@
       </c>
       <c r="K890" t="inlineStr">
         <is>
-          <t>Canon iR-ADV C5540</t>
+          <t>Brother HL-L6250DN</t>
         </is>
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>EG S</t>
+          <t>EG S Zulassung</t>
         </is>
       </c>
     </row>
@@ -49711,12 +49711,12 @@
       </c>
       <c r="E891" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>M0</t>
         </is>
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>DP_PCN</t>
+          <t>DP_PCBI</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
@@ -49767,12 +49767,12 @@
       </c>
       <c r="E892" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>M0</t>
         </is>
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>DP_ATHN</t>
+          <t>DP_PCBIA</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
@@ -49818,17 +49818,17 @@
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>PSTVA5730</t>
+          <t>PSTVA5729</t>
         </is>
       </c>
       <c r="E893" t="inlineStr">
         <is>
-          <t>M0</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t>DE001</t>
+          <t>DP_PCN</t>
         </is>
       </c>
       <c r="G893" t="inlineStr">
@@ -49849,12 +49849,12 @@
       </c>
       <c r="K893" t="inlineStr">
         <is>
-          <t>Brother HL-L6250DN</t>
+          <t>Canon iR-ADV C5540</t>
         </is>
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>EG S Zulassung</t>
+          <t>EG S</t>
         </is>
       </c>
     </row>
@@ -49874,17 +49874,17 @@
       </c>
       <c r="D894" t="inlineStr">
         <is>
-          <t>PSTVA5730</t>
+          <t>PSTVA5729</t>
         </is>
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>DP_CGB</t>
+          <t>DP_ATHN</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
@@ -49905,12 +49905,12 @@
       </c>
       <c r="K894" t="inlineStr">
         <is>
-          <t>Brother HL-L6250DN</t>
+          <t>Canon iR-ADV C5540</t>
         </is>
       </c>
       <c r="L894" t="inlineStr">
         <is>
-          <t>EG S Zulassung</t>
+          <t>EG S</t>
         </is>
       </c>
     </row>
@@ -70173,7 +70173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70202,11 +70202,6 @@
           <t>Beschreibung Formular</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Canon Printer Settings</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -70229,7 +70224,6 @@
           <t>Adressetikette</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -70252,7 +70246,6 @@
           <t>Kontrollfahrt Bewilligung</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -70275,7 +70268,6 @@
           <t>Bewilligungskarte Schifffahrt</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -70298,7 +70290,6 @@
           <t>Anhang zum Fahrzeugausweis</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -70321,7 +70312,6 @@
           <t>Rückseite Anhang zum Fahrzeugausweis</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -70344,7 +70334,6 @@
           <t>Schiffsausweis</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -70367,7 +70356,6 @@
           <t>Fahrzeugausweis kollektiv</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -70390,7 +70378,6 @@
           <t>Tagesausweis</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -70413,7 +70400,6 @@
           <t>Fahrzeugausweis</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -70436,7 +70422,6 @@
           <t>Ersatzfahrzeugausweis</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -70459,7 +70444,6 @@
           <t>Fahrzeugausweis befristet</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -70482,7 +70466,6 @@
           <t>Behindertenparkkarte</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -70505,7 +70488,6 @@
           <t>Fahrzeugausweis MOFA</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -70528,7 +70510,6 @@
           <t>Entbindung der Gurtentragpflicht</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -70551,7 +70532,6 @@
           <t>Internationaler Schiffsführerausweis</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -70574,7 +70554,6 @@
           <t>Internationaler Schiffsführerausweis Rückseite</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -70597,7 +70576,6 @@
           <t>Internationaler Führerausweis</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -70620,7 +70598,6 @@
           <t>Führerausweis Schiff</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -70643,7 +70620,6 @@
           <t>Führerausweis Lerner</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -70666,7 +70642,6 @@
           <t>Versandetikette Fahrzeug</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -70689,7 +70664,6 @@
           <t>Internationale Versicherungskarte (Grüne Karte)</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -70704,7 +70678,6 @@
           <t>Platzhalter für alle Inspect-Formulare</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -70719,7 +70692,6 @@
           <t>Platzhalter für Autoprint Lernfahrausweis</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
